--- a/data/health_center/data.xlsx
+++ b/data/health_center/data.xlsx
@@ -495,10 +495,10 @@
         <v>高松市桜町一丁目9-12</v>
       </c>
       <c r="F3" t="str">
-        <v>（保健医療政策課）  087-839-3805  （健康づくり推進課）  087-839-2363</v>
+        <v>（健康づくり推進課）  087-839-2363</v>
       </c>
       <c r="G3" t="str">
-        <v>（保健医療政策課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/chiikiiryo.html  （健康づくり推進課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/hokencenter.html</v>
+        <v>（健康づくり推進課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/hokencenter.html</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -711,19 +711,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>34.28301583</v>
+        <v>34.28437911151482</v>
       </c>
       <c r="C9" t="str">
-        <v>134.0220953</v>
+        <v>134.0406958074824</v>
       </c>
       <c r="D9" t="str">
-        <v>一宮保健ステーション</v>
+        <v>仏生山保健センター</v>
       </c>
       <c r="E9" t="str">
-        <v>高松市一宮町503-40</v>
+        <v>高松市仏生山町甲218-1</v>
       </c>
       <c r="F9" t="str">
-        <v>087-885-5291</v>
+        <v>087-889-7772</v>
       </c>
       <c r="G9" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/hokencenter.html</v>
@@ -749,16 +749,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="str">
-        <v>34.27597056</v>
+        <v>34.27693662649541</v>
       </c>
       <c r="C10" t="str">
-        <v>134.0855947</v>
+        <v>134.08568161363831</v>
       </c>
       <c r="D10" t="str">
         <v>山田保健ステーション</v>
       </c>
       <c r="E10" t="str">
-        <v>高松市川島本町191-13</v>
+        <v>高松市川島本町191-10</v>
       </c>
       <c r="F10" t="str">
         <v>087-848-6581</v>

--- a/data/health_center/data.xlsx
+++ b/data/health_center/data.xlsx
@@ -445,10 +445,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>34.330736</v>
+        <v>34.33048792443162</v>
       </c>
       <c r="C2" t="str">
-        <v>134.052631</v>
+        <v>134.0526068601177</v>
       </c>
       <c r="D2" t="str">
         <v>高松市保健所</v>
@@ -457,10 +457,10 @@
         <v>高松市桜町一丁目10-27</v>
       </c>
       <c r="F2" t="str">
-        <v>（保健予防課）  087-839-2860  （感染症係）  087-839-2870  （生活衛生課）  087-839-2865</v>
+        <v>（保健医療政策課）  087-839-2860  （感染症対策課）  087-839-2870  （生活衛生課）  087-839-2865</v>
       </c>
       <c r="G2" t="str">
-        <v>（保健予防課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/hokentaisaku.html  （感染症係）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kansensho.html  （生活衛生課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/seikatsueisei.html</v>
+        <v>（保健医療政策課）https://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/chiikiiryo.html  （感染症対策課）https://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/hokentaisaku.html   （生活衛生課）https://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/seikatsueisei.html</v>
       </c>
       <c r="H2" t="str">
         <v/>

--- a/data/health_center/data.xlsx
+++ b/data/health_center/data.xlsx
@@ -539,16 +539,16 @@
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kenkou/kenkonotameni/seijin/aji_hottopian.html</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>(3階)浴室、娯楽室13:00～21:00 (2階)健康増進機器室10:00～20:00</v>
       </c>
       <c r="I4" t="str">
         <v>火水木金土日</v>
       </c>
       <c r="J4" t="str">
-        <v>09:00</v>
+        <v>10:00</v>
       </c>
       <c r="K4" t="str">
-        <v>22:00</v>
+        <v>21:00</v>
       </c>
       <c r="L4" t="str">
         <v>年末年始（12/29から翌年の1/3）は終日利用不可</v>

--- a/data/health_center/data.xlsx
+++ b/data/health_center/data.xlsx
@@ -536,7 +536,7 @@
         <v>087-871-2534</v>
       </c>
       <c r="G4" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kenkou/kenkonotameni/seijin/aji_hottopian.html</v>
+        <v>https://www.city.takamatsu.kagawa.jp/smph/kurashi/kenkou/kenkonotameni/aji_hottopian.html</v>
       </c>
       <c r="H4" t="str">
         <v>(3階)浴室、娯楽室13:00～21:00 (2階)健康増進機器室10:00～20:00</v>
